--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3177125.080018895</v>
+        <v>3174669.128474245</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10392628.21291234</v>
+        <v>10392628.21291233</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8111618.787123851</v>
+        <v>8111618.787123852</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1370,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.7236160152343</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>52.50412553520698</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1591,7 +1591,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y13" t="n">
         <v>171.6095167335022</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444522</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>241.6510731180163</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958316</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633446</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279765</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433857</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572811</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124542</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145466</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575765</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052353</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179983</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1850,13 @@
         <v>286.4582574919344</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7055859435132</v>
+        <v>243.9634220772288</v>
       </c>
       <c r="F17" t="n">
         <v>338.6512616129629</v>
       </c>
       <c r="G17" t="n">
-        <v>342.6969415247049</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>226.3829802585719</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.96297765942728</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>135.6931860108716</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>182.7703878301534</v>
       </c>
       <c r="V17" t="n">
         <v>259.5274743413863</v>
@@ -1910,7 +1910,7 @@
         <v>301.5063165497205</v>
       </c>
       <c r="Y17" t="n">
-        <v>265.0006006367668</v>
+        <v>318.013154527305</v>
       </c>
     </row>
     <row r="18">
@@ -2090,13 +2090,13 @@
         <v>313.7055859435132</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6512616129629</v>
+        <v>152.5951364805454</v>
       </c>
       <c r="G20" t="n">
         <v>342.6969415247049</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3829802585719</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.96297765942728</v>
       </c>
       <c r="T20" t="n">
         <v>135.6931860108716</v>
       </c>
       <c r="U20" t="n">
-        <v>92.31044468725506</v>
+        <v>182.7703878301534</v>
       </c>
       <c r="V20" t="n">
         <v>259.5274743413863</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>281.0161845886644</v>
       </c>
       <c r="X20" t="n">
         <v>301.5063165497205</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96297765942728</v>
+        <v>40.9629776594273</v>
       </c>
       <c r="T23" t="n">
         <v>135.6931860108716</v>
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957295</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2846,7 +2846,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403096</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>310.0332159364514</v>
       </c>
       <c r="C35" t="n">
-        <v>292.5722660439784</v>
+        <v>292.5722660439783</v>
       </c>
       <c r="D35" t="n">
         <v>281.9824158936538</v>
@@ -3275,10 +3275,10 @@
         <v>309.2297443452326</v>
       </c>
       <c r="F35" t="n">
-        <v>334.1754200146823</v>
+        <v>334.1754200146822</v>
       </c>
       <c r="G35" t="n">
-        <v>338.2210999264243</v>
+        <v>338.2210999264242</v>
       </c>
       <c r="H35" t="n">
         <v>221.9071386602913</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>36.48713606114669</v>
+        <v>36.48713606114661</v>
       </c>
       <c r="T35" t="n">
         <v>131.217344412591</v>
       </c>
       <c r="U35" t="n">
-        <v>178.2945462318728</v>
+        <v>178.2945462318727</v>
       </c>
       <c r="V35" t="n">
-        <v>255.0516327431058</v>
+        <v>255.0516327431057</v>
       </c>
       <c r="W35" t="n">
-        <v>276.5403429903839</v>
+        <v>276.5403429903838</v>
       </c>
       <c r="X35" t="n">
-        <v>297.0304749514399</v>
+        <v>297.0304749514398</v>
       </c>
       <c r="Y35" t="n">
         <v>313.5373129290244</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>150.4165289908327</v>
+        <v>107.1313544549081</v>
       </c>
       <c r="C37" t="n">
-        <v>94.54619537159867</v>
+        <v>94.54619537159861</v>
       </c>
       <c r="D37" t="n">
-        <v>75.91484729118319</v>
+        <v>75.91484729118314</v>
       </c>
       <c r="E37" t="n">
-        <v>73.73333691954001</v>
+        <v>73.73333691953995</v>
       </c>
       <c r="F37" t="n">
-        <v>72.72042229590208</v>
+        <v>72.72042229590203</v>
       </c>
       <c r="G37" t="n">
-        <v>93.32518253199906</v>
+        <v>93.325182531999</v>
       </c>
       <c r="H37" t="n">
-        <v>72.05438918729162</v>
+        <v>72.05438918729156</v>
       </c>
       <c r="I37" t="n">
-        <v>23.65179468280895</v>
+        <v>23.65179468280889</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23152694301818</v>
+        <v>16.23152694301812</v>
       </c>
       <c r="S37" t="n">
         <v>117.0683996044127</v>
       </c>
       <c r="T37" t="n">
-        <v>146.84832354914</v>
+        <v>190.1334980850655</v>
       </c>
       <c r="U37" t="n">
-        <v>213.5112124785837</v>
+        <v>213.5112124785836</v>
       </c>
       <c r="V37" t="n">
-        <v>179.4370175967989</v>
+        <v>179.4370175967988</v>
       </c>
       <c r="W37" t="n">
-        <v>213.8223726095619</v>
+        <v>213.8223726095618</v>
       </c>
       <c r="X37" t="n">
-        <v>153.009029662008</v>
+        <v>153.0090296620079</v>
       </c>
       <c r="Y37" t="n">
         <v>145.8840276250656</v>
@@ -3503,7 +3503,7 @@
         <v>310.0332159364514</v>
       </c>
       <c r="C38" t="n">
-        <v>292.5722660439784</v>
+        <v>292.5722660439783</v>
       </c>
       <c r="D38" t="n">
         <v>281.9824158936538</v>
@@ -3512,10 +3512,10 @@
         <v>309.2297443452326</v>
       </c>
       <c r="F38" t="n">
-        <v>334.1754200146823</v>
+        <v>334.1754200146822</v>
       </c>
       <c r="G38" t="n">
-        <v>338.2210999264243</v>
+        <v>338.2210999264242</v>
       </c>
       <c r="H38" t="n">
         <v>221.9071386602913</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>36.48713606114669</v>
+        <v>36.48713606114661</v>
       </c>
       <c r="T38" t="n">
         <v>131.217344412591</v>
       </c>
       <c r="U38" t="n">
-        <v>178.2945462318737</v>
+        <v>178.2945462318727</v>
       </c>
       <c r="V38" t="n">
-        <v>255.0516327431058</v>
+        <v>255.0516327431057</v>
       </c>
       <c r="W38" t="n">
-        <v>276.5403429903839</v>
+        <v>276.5403429903838</v>
       </c>
       <c r="X38" t="n">
-        <v>297.0304749514399</v>
+        <v>297.0304749514398</v>
       </c>
       <c r="Y38" t="n">
         <v>313.5373129290244</v>
@@ -3661,25 +3661,25 @@
         <v>107.1313544549081</v>
       </c>
       <c r="C40" t="n">
-        <v>94.54619537159867</v>
+        <v>94.54619537159861</v>
       </c>
       <c r="D40" t="n">
-        <v>75.91484729118319</v>
+        <v>75.91484729118314</v>
       </c>
       <c r="E40" t="n">
-        <v>73.73333691954001</v>
+        <v>73.73333691953995</v>
       </c>
       <c r="F40" t="n">
-        <v>72.72042229590208</v>
+        <v>72.72042229590203</v>
       </c>
       <c r="G40" t="n">
-        <v>93.32518253199906</v>
+        <v>93.325182531999</v>
       </c>
       <c r="H40" t="n">
-        <v>72.05438918729162</v>
+        <v>72.05438918729156</v>
       </c>
       <c r="I40" t="n">
-        <v>23.65179468280895</v>
+        <v>23.65179468280889</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23152694301818</v>
+        <v>16.23152694301812</v>
       </c>
       <c r="S40" t="n">
         <v>117.0683996044127</v>
       </c>
       <c r="T40" t="n">
-        <v>190.1334980850646</v>
+        <v>146.84832354914</v>
       </c>
       <c r="U40" t="n">
-        <v>213.5112124785837</v>
+        <v>213.5112124785836</v>
       </c>
       <c r="V40" t="n">
-        <v>179.4370175967989</v>
+        <v>179.4370175967988</v>
       </c>
       <c r="W40" t="n">
-        <v>213.8223726095619</v>
+        <v>213.8223726095618</v>
       </c>
       <c r="X40" t="n">
-        <v>153.009029662008</v>
+        <v>153.0090296620079</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.8840276250656</v>
+        <v>189.1692021609908</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3740,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>282.5062909376472</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8060213432257205</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3977,22 +3977,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>222.4310137042843</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8060213432259457</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2018.472742224994</v>
+        <v>1627.38364477722</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232656</v>
+        <v>1305.870760784882</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>995.0546951262047</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5057,34 +5057,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>3041.992567213673</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2736.673544891632</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>2410.657419578625</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="Y11" t="n">
-        <v>2357.622949341042</v>
+        <v>1966.533851893269</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254609</v>
+        <v>637.9796998254612</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611989</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268789</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770419</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315259</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337117</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5221,16 +5221,16 @@
         <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874609</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2012.430767830336</v>
+        <v>1301.367519464214</v>
       </c>
       <c r="C14" t="n">
-        <v>1690.917883837997</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1380.10181817932</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1041.763198529149</v>
+        <v>684.2689010822729</v>
       </c>
       <c r="F14" t="n">
-        <v>678.2269266876149</v>
+        <v>684.2689010822729</v>
       </c>
       <c r="G14" t="n">
-        <v>310.6041094806848</v>
+        <v>316.6460838753428</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.60582160917</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>3020.286799287129</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>2694.270673974122</v>
+        <v>1983.207425608001</v>
       </c>
       <c r="Y14" t="n">
-        <v>2351.580974946384</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052936</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254601</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611978</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268781</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770411</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998335</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315233</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328064</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337093</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885665</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843936</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016756</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702822</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107744</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813345</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588245</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105844</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179561</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.54794583286</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874599</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1889.6869997392</v>
+        <v>1473.081842778605</v>
       </c>
       <c r="C17" t="n">
-        <v>1589.638406161161</v>
+        <v>1173.033249200565</v>
       </c>
       <c r="D17" t="n">
-        <v>1300.286630916782</v>
+        <v>883.6814739561871</v>
       </c>
       <c r="E17" t="n">
-        <v>983.4123016809103</v>
+        <v>637.2537748882793</v>
       </c>
       <c r="F17" t="n">
-        <v>641.3403202536749</v>
+        <v>295.1817934610439</v>
       </c>
       <c r="G17" t="n">
         <v>295.1817934610439</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810568</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3284.229076498639</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3147.165252245233</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>2962.548698881442</v>
       </c>
       <c r="V17" t="n">
-        <v>3063.456857627972</v>
+        <v>2700.399734900243</v>
       </c>
       <c r="W17" t="n">
-        <v>2779.60212572023</v>
+        <v>2416.545002992501</v>
       </c>
       <c r="X17" t="n">
-        <v>2475.050290821522</v>
+        <v>2111.993168093794</v>
       </c>
       <c r="Y17" t="n">
-        <v>2207.37291644095</v>
+        <v>1790.767759480354</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5665,31 +5665,31 @@
         <v>172.2271336712357</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92387025146577</v>
+        <v>94.9238702514658</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>660.7961656669607</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>1004.95321126651</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.361587972374</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.691186892788</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.298687326447</v>
       </c>
       <c r="Q19" t="n">
         <v>1955.908983478961</v>
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1889.6869997392</v>
+        <v>1473.081842778605</v>
       </c>
       <c r="C20" t="n">
-        <v>1589.638406161161</v>
+        <v>1173.033249200566</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.286630916783</v>
+        <v>883.6814739561876</v>
       </c>
       <c r="E20" t="n">
-        <v>983.4123016809108</v>
+        <v>566.8071447203156</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3403202536751</v>
+        <v>412.6706432248146</v>
       </c>
       <c r="G20" t="n">
-        <v>295.1817934610439</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
@@ -5765,37 +5765,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3284.229076498639</v>
       </c>
       <c r="T20" t="n">
-        <v>3188.541997355765</v>
+        <v>3147.165252245233</v>
       </c>
       <c r="U20" t="n">
-        <v>3095.299123934295</v>
+        <v>2962.548698881442</v>
       </c>
       <c r="V20" t="n">
-        <v>2833.150159953097</v>
+        <v>2700.399734900243</v>
       </c>
       <c r="W20" t="n">
-        <v>2833.150159953097</v>
+        <v>2416.545002992501</v>
       </c>
       <c r="X20" t="n">
-        <v>2528.598325054389</v>
+        <v>2111.993168093794</v>
       </c>
       <c r="Y20" t="n">
-        <v>2207.37291644095</v>
+        <v>1790.767759480354</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5902,16 +5902,16 @@
         <v>172.2271336712357</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92387025146577</v>
+        <v>94.9238702514658</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
@@ -5926,7 +5926,7 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.298687326447</v>
       </c>
       <c r="Q22" t="n">
         <v>1955.908983478961</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.18914579962</v>
+        <v>1898.189145799621</v>
       </c>
       <c r="C23" t="n">
         <v>1598.140552221581</v>
@@ -5981,34 +5981,34 @@
         <v>303.6839395214643</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01426249260373</v>
+        <v>75.01426249260375</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01426249260373</v>
+        <v>75.01426249260375</v>
       </c>
       <c r="J23" t="n">
-        <v>431.2990424719821</v>
+        <v>263.8933934516292</v>
       </c>
       <c r="K23" t="n">
-        <v>765.1184161618285</v>
+        <v>597.7127671414755</v>
       </c>
       <c r="L23" t="n">
-        <v>1216.152629410237</v>
+        <v>1048.746980389884</v>
       </c>
       <c r="M23" t="n">
-        <v>1998.884042022405</v>
+        <v>1582.278885061809</v>
       </c>
       <c r="N23" t="n">
-        <v>2545.662859081187</v>
+        <v>2168.67067963107</v>
       </c>
       <c r="O23" t="n">
-        <v>3048.635329960524</v>
+        <v>3048.635329960525</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.409696317702</v>
+        <v>3443.409696317703</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.696058073384</v>
+        <v>3691.696058073385</v>
       </c>
       <c r="R23" t="n">
         <v>3750.713124630187</v>
@@ -6063,7 +6063,7 @@
         <v>94.02155409106581</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01426249260373</v>
+        <v>75.01426249260375</v>
       </c>
       <c r="J24" t="n">
         <v>168.6915319832214</v>
@@ -6127,13 +6127,13 @@
         <v>517.6961034000871</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4933873501236</v>
+        <v>436.4933873501237</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4942171301028</v>
+        <v>357.4942171301029</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5181929945647</v>
+        <v>279.5181929945648</v>
       </c>
       <c r="G25" t="n">
         <v>180.729279731656</v>
@@ -6142,7 +6142,7 @@
         <v>103.4260163118861</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01426249260373</v>
+        <v>75.01426249260375</v>
       </c>
       <c r="J25" t="n">
         <v>120.1368949395393</v>
@@ -6154,16 +6154,16 @@
         <v>640.6838763369117</v>
       </c>
       <c r="M25" t="n">
-        <v>984.8409219364606</v>
+        <v>1013.45535732693</v>
       </c>
       <c r="N25" t="n">
-        <v>1326.249298642325</v>
+        <v>1354.863734032795</v>
       </c>
       <c r="O25" t="n">
-        <v>1625.578897562739</v>
+        <v>1654.193332953208</v>
       </c>
       <c r="P25" t="n">
-        <v>1858.186397996398</v>
+        <v>1886.800833386867</v>
       </c>
       <c r="Q25" t="n">
         <v>1964.411129539382</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6224,52 +6224,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P26" t="n">
-        <v>3518.923563871313</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3977.401766380301</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456137</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644868</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032356</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.55376099778</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246651</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572836</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951511</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676539</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6333,13 +6333,13 @@
         <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
         <v>1540.005790936169</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698011</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899675</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257051</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913854</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415484</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643407</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,16 +6382,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6403,31 +6403,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519675</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,7 +6449,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.596005545029</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6540,13 +6540,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,13 +6619,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,22 +6649,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
@@ -6686,7 +6686,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467785</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398486</v>
@@ -6698,31 +6698,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>822.9179334642256</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1273.952146712634</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>1807.484051384559</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.596005545029</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424366</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3518.923563871311</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3977.401766380299</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
@@ -6795,7 +6795,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,19 +6856,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960316</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
         <v>1910.743863481264</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6920,61 +6920,61 @@
         <v>1289.412839322308</v>
       </c>
       <c r="E35" t="n">
-        <v>977.0595622059122</v>
+        <v>977.0595622059118</v>
       </c>
       <c r="F35" t="n">
-        <v>639.5086328981524</v>
+        <v>639.508632898152</v>
       </c>
       <c r="G35" t="n">
-        <v>297.871158224996</v>
+        <v>297.8711582249959</v>
       </c>
       <c r="H35" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="I35" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J35" t="n">
-        <v>430.0073132949892</v>
+        <v>262.6016642746362</v>
       </c>
       <c r="K35" t="n">
-        <v>763.8266869848355</v>
+        <v>917.3249964099356</v>
       </c>
       <c r="L35" t="n">
-        <v>1214.860900233244</v>
+        <v>1368.359209658344</v>
       </c>
       <c r="M35" t="n">
-        <v>1748.392804905168</v>
+        <v>1934.297583172757</v>
       </c>
       <c r="N35" t="n">
-        <v>2295.17162196395</v>
+        <v>2481.076400231539</v>
       </c>
       <c r="O35" t="n">
-        <v>2798.144092843287</v>
+        <v>2984.048871110876</v>
       </c>
       <c r="P35" t="n">
-        <v>3192.918459200465</v>
+        <v>3378.823237468054</v>
       </c>
       <c r="Q35" t="n">
-        <v>3562.050343549484</v>
+        <v>3627.109599223736</v>
       </c>
       <c r="R35" t="n">
         <v>3686.126665780539</v>
       </c>
       <c r="S35" t="n">
-        <v>3649.270972789482</v>
+        <v>3649.270972789481</v>
       </c>
       <c r="T35" t="n">
-        <v>3516.728200655552</v>
+        <v>3516.728200655551</v>
       </c>
       <c r="U35" t="n">
-        <v>3336.632699411236</v>
+        <v>3336.632699411235</v>
       </c>
       <c r="V35" t="n">
         <v>3079.004787549512</v>
       </c>
       <c r="W35" t="n">
-        <v>2799.671107761246</v>
+        <v>2799.671107761245</v>
       </c>
       <c r="X35" t="n">
         <v>2499.640324982013</v>
@@ -7011,19 +7011,19 @@
         <v>92.72982491407285</v>
       </c>
       <c r="I36" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J36" t="n">
-        <v>167.3998028062286</v>
+        <v>167.3998028062281</v>
       </c>
       <c r="K36" t="n">
-        <v>405.6640017865757</v>
+        <v>405.6640017865751</v>
       </c>
       <c r="L36" t="n">
-        <v>772.362162099241</v>
+        <v>772.3621620992403</v>
       </c>
       <c r="M36" t="n">
-        <v>1219.638487321557</v>
+        <v>1219.638487321556</v>
       </c>
       <c r="N36" t="n">
         <v>1693.161530876011</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.7792689523013</v>
+        <v>584.7792689523009</v>
       </c>
       <c r="C37" t="n">
-        <v>489.2780615062421</v>
+        <v>489.2780615062417</v>
       </c>
       <c r="D37" t="n">
-        <v>412.596397575754</v>
+        <v>412.5963975757537</v>
       </c>
       <c r="E37" t="n">
-        <v>338.1182794752085</v>
+        <v>338.1182794752082</v>
       </c>
       <c r="F37" t="n">
-        <v>264.6633074591458</v>
+        <v>264.6633074591456</v>
       </c>
       <c r="G37" t="n">
-        <v>170.3954463157124</v>
+        <v>170.3954463157122</v>
       </c>
       <c r="H37" t="n">
-        <v>97.61323501541781</v>
+        <v>97.61323501541773</v>
       </c>
       <c r="I37" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J37" t="n">
         <v>118.8451657625463</v>
@@ -7123,22 +7123,22 @@
         <v>1799.858574519969</v>
       </c>
       <c r="T37" t="n">
-        <v>1651.526934571343</v>
+        <v>1607.804536050206</v>
       </c>
       <c r="U37" t="n">
-        <v>1435.859043178834</v>
+        <v>1392.136644657697</v>
       </c>
       <c r="V37" t="n">
-        <v>1254.609530454794</v>
+        <v>1210.887131933658</v>
       </c>
       <c r="W37" t="n">
-        <v>1038.627335899681</v>
+        <v>994.904937378545</v>
       </c>
       <c r="X37" t="n">
-        <v>884.0727604835117</v>
+        <v>840.3503619623754</v>
       </c>
       <c r="Y37" t="n">
-        <v>736.7151568218293</v>
+        <v>692.9927583006929</v>
       </c>
     </row>
     <row r="38">
@@ -7157,52 +7157,52 @@
         <v>1289.412839322308</v>
       </c>
       <c r="E38" t="n">
-        <v>977.0595622059114</v>
+        <v>977.0595622059113</v>
       </c>
       <c r="F38" t="n">
         <v>639.5086328981515</v>
       </c>
       <c r="G38" t="n">
-        <v>297.871158224996</v>
+        <v>297.8711582249959</v>
       </c>
       <c r="H38" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="I38" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J38" t="n">
-        <v>430.0073132949892</v>
+        <v>262.6016642746362</v>
       </c>
       <c r="K38" t="n">
-        <v>884.6722095781722</v>
+        <v>917.3249964099356</v>
       </c>
       <c r="L38" t="n">
-        <v>1335.706422826581</v>
+        <v>1368.359209658344</v>
       </c>
       <c r="M38" t="n">
-        <v>1869.238327498505</v>
+        <v>1934.297583172757</v>
       </c>
       <c r="N38" t="n">
-        <v>2416.017144557287</v>
+        <v>2481.076400231539</v>
       </c>
       <c r="O38" t="n">
-        <v>2918.989615436624</v>
+        <v>2984.048871110876</v>
       </c>
       <c r="P38" t="n">
-        <v>3313.763981793802</v>
+        <v>3378.823237468054</v>
       </c>
       <c r="Q38" t="n">
-        <v>3562.050343549484</v>
+        <v>3627.109599223736</v>
       </c>
       <c r="R38" t="n">
         <v>3686.126665780539</v>
       </c>
       <c r="S38" t="n">
-        <v>3649.270972789482</v>
+        <v>3649.270972789481</v>
       </c>
       <c r="T38" t="n">
-        <v>3516.728200655552</v>
+        <v>3516.728200655551</v>
       </c>
       <c r="U38" t="n">
         <v>3336.632699411235</v>
@@ -7248,16 +7248,16 @@
         <v>92.72982491407285</v>
       </c>
       <c r="I39" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J39" t="n">
         <v>167.3998028062281</v>
       </c>
       <c r="K39" t="n">
-        <v>405.6640017865752</v>
+        <v>405.6640017865751</v>
       </c>
       <c r="L39" t="n">
-        <v>772.3621620992404</v>
+        <v>772.3621620992403</v>
       </c>
       <c r="M39" t="n">
         <v>1219.638487321556</v>
@@ -7266,10 +7266,10 @@
         <v>1693.161530876011</v>
       </c>
       <c r="O39" t="n">
-        <v>2104.122810294065</v>
+        <v>2104.122810294066</v>
       </c>
       <c r="P39" t="n">
-        <v>2414.622401770168</v>
+        <v>2414.622401770169</v>
       </c>
       <c r="Q39" t="n">
         <v>2572.263959416769</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.7792689523013</v>
+        <v>584.7792689523009</v>
       </c>
       <c r="C40" t="n">
-        <v>489.2780615062421</v>
+        <v>489.2780615062417</v>
       </c>
       <c r="D40" t="n">
-        <v>412.596397575754</v>
+        <v>412.5963975757537</v>
       </c>
       <c r="E40" t="n">
-        <v>338.1182794752085</v>
+        <v>338.1182794752082</v>
       </c>
       <c r="F40" t="n">
-        <v>264.6633074591458</v>
+        <v>264.6633074591456</v>
       </c>
       <c r="G40" t="n">
-        <v>170.3954463157124</v>
+        <v>170.3954463157122</v>
       </c>
       <c r="H40" t="n">
-        <v>97.61323501541781</v>
+        <v>97.61323501541773</v>
       </c>
       <c r="I40" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J40" t="n">
         <v>118.8451657625463</v>
@@ -7360,22 +7360,22 @@
         <v>1799.858574519969</v>
       </c>
       <c r="T40" t="n">
-        <v>1607.804536050207</v>
+        <v>1651.526934571343</v>
       </c>
       <c r="U40" t="n">
-        <v>1392.136644657698</v>
+        <v>1435.859043178834</v>
       </c>
       <c r="V40" t="n">
-        <v>1210.887131933659</v>
+        <v>1254.609530454795</v>
       </c>
       <c r="W40" t="n">
-        <v>994.9049373785456</v>
+        <v>1038.627335899682</v>
       </c>
       <c r="X40" t="n">
-        <v>840.3503619623758</v>
+        <v>884.072760483512</v>
       </c>
       <c r="Y40" t="n">
-        <v>692.9927583006934</v>
+        <v>692.9927583006929</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2025.683159108421</v>
+        <v>1661.88836363558</v>
       </c>
       <c r="C41" t="n">
-        <v>1704.170275116083</v>
+        <v>1340.375479643242</v>
       </c>
       <c r="D41" t="n">
-        <v>1393.354209457405</v>
+        <v>1340.375479643242</v>
       </c>
       <c r="E41" t="n">
-        <v>1055.015589807234</v>
+        <v>1055.015589807235</v>
       </c>
       <c r="F41" t="n">
         <v>691.4793179657004</v>
       </c>
       <c r="G41" t="n">
-        <v>323.8565007587703</v>
+        <v>323.8565007587702</v>
       </c>
       <c r="H41" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="I41" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J41" t="n">
-        <v>340.6609951350201</v>
+        <v>430.0073132949892</v>
       </c>
       <c r="K41" t="n">
-        <v>674.4803688248664</v>
+        <v>763.8266869848355</v>
       </c>
       <c r="L41" t="n">
-        <v>1125.514582073275</v>
+        <v>1214.860900233244</v>
       </c>
       <c r="M41" t="n">
-        <v>1659.046486745199</v>
+        <v>1748.392804905168</v>
       </c>
       <c r="N41" t="n">
-        <v>2205.825303803982</v>
+        <v>2295.17162196395</v>
       </c>
       <c r="O41" t="n">
-        <v>2708.797774683318</v>
+        <v>2984.048871110876</v>
       </c>
       <c r="P41" t="n">
-        <v>3103.572141040496</v>
+        <v>3378.823237468054</v>
       </c>
       <c r="Q41" t="n">
-        <v>3562.050343549484</v>
+        <v>3627.109599223736</v>
       </c>
       <c r="R41" t="n">
         <v>3686.126665780539</v>
       </c>
       <c r="S41" t="n">
-        <v>3623.285630255708</v>
+        <v>3623.285630255707</v>
       </c>
       <c r="T41" t="n">
-        <v>3622.471467282753</v>
+        <v>3464.757515588002</v>
       </c>
       <c r="U41" t="n">
-        <v>3622.471467282753</v>
+        <v>3258.676671809912</v>
       </c>
       <c r="V41" t="n">
-        <v>3338.858212887255</v>
+        <v>2975.063417414415</v>
       </c>
       <c r="W41" t="n">
-        <v>3033.539190565215</v>
+        <v>2669.744395092374</v>
       </c>
       <c r="X41" t="n">
-        <v>2707.523065252208</v>
+        <v>2343.728269779367</v>
       </c>
       <c r="Y41" t="n">
-        <v>2364.83336622447</v>
+        <v>2001.038570751629</v>
       </c>
     </row>
     <row r="42">
@@ -7485,10 +7485,10 @@
         <v>92.72982491407285</v>
       </c>
       <c r="I42" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J42" t="n">
-        <v>167.3998028062281</v>
+        <v>167.3998028062286</v>
       </c>
       <c r="K42" t="n">
         <v>405.6640017865757</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>766.6766666887215</v>
+        <v>766.6766666887214</v>
       </c>
       <c r="C43" t="n">
-        <v>645.1901167088879</v>
+        <v>645.1901167088878</v>
       </c>
       <c r="D43" t="n">
-        <v>542.5231102446255</v>
+        <v>542.5231102446253</v>
       </c>
       <c r="E43" t="n">
-        <v>442.0596496103058</v>
+        <v>442.0596496103055</v>
       </c>
       <c r="F43" t="n">
-        <v>342.6193350604688</v>
+        <v>342.6193350604684</v>
       </c>
       <c r="G43" t="n">
-        <v>222.366131383261</v>
+        <v>222.3661313832607</v>
       </c>
       <c r="H43" t="n">
-        <v>123.5985775491921</v>
+        <v>123.5985775491918</v>
       </c>
       <c r="I43" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J43" t="n">
-        <v>165.3505510149524</v>
+        <v>165.3505510149529</v>
       </c>
       <c r="K43" t="n">
-        <v>415.8431192162354</v>
+        <v>415.8431192162357</v>
       </c>
       <c r="L43" t="n">
-        <v>778.9083029171381</v>
+        <v>778.9083029171385</v>
       </c>
       <c r="M43" t="n">
         <v>1169.570733769094</v>
@@ -7588,19 +7588,19 @@
         <v>2182.432365586251</v>
       </c>
       <c r="Q43" t="n">
-        <v>2306.548046991172</v>
+        <v>2306.548046991173</v>
       </c>
       <c r="R43" t="n">
-        <v>2264.167222696773</v>
+        <v>2264.167222696774</v>
       </c>
       <c r="S43" t="n">
         <v>2119.930971471673</v>
       </c>
       <c r="T43" t="n">
-        <v>1945.613988989273</v>
+        <v>1945.613988989272</v>
       </c>
       <c r="U43" t="n">
-        <v>1703.96075506299</v>
+        <v>1703.960755062989</v>
       </c>
       <c r="V43" t="n">
         <v>1496.725899805176</v>
@@ -7609,10 +7609,10 @@
         <v>1254.758362716289</v>
       </c>
       <c r="X43" t="n">
-        <v>1074.218444766345</v>
+        <v>1074.218444766344</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.8754985708879</v>
+        <v>900.8754985708877</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2025.683159108421</v>
+        <v>1661.88836363558</v>
       </c>
       <c r="C44" t="n">
-        <v>1704.170275116083</v>
+        <v>1340.375479643242</v>
       </c>
       <c r="D44" t="n">
-        <v>1393.354209457406</v>
+        <v>1029.559413984564</v>
       </c>
       <c r="E44" t="n">
-        <v>1055.015589807235</v>
+        <v>1029.559413984564</v>
       </c>
       <c r="F44" t="n">
-        <v>691.4793179657006</v>
+        <v>666.0231421430301</v>
       </c>
       <c r="G44" t="n">
-        <v>323.8565007587703</v>
+        <v>298.4003249360999</v>
       </c>
       <c r="H44" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="I44" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J44" t="n">
-        <v>430.0073132949892</v>
+        <v>262.6016642746362</v>
       </c>
       <c r="K44" t="n">
-        <v>763.8266869848355</v>
+        <v>596.4210379644826</v>
       </c>
       <c r="L44" t="n">
-        <v>1214.860900233244</v>
+        <v>1047.455251212891</v>
       </c>
       <c r="M44" t="n">
-        <v>1748.392804905168</v>
+        <v>1869.238327498504</v>
       </c>
       <c r="N44" t="n">
-        <v>2295.17162196395</v>
+        <v>2416.017144557286</v>
       </c>
       <c r="O44" t="n">
-        <v>2798.144092843287</v>
+        <v>2918.989615436623</v>
       </c>
       <c r="P44" t="n">
-        <v>3192.918459200465</v>
+        <v>3313.763981793801</v>
       </c>
       <c r="Q44" t="n">
-        <v>3562.050343549484</v>
+        <v>3562.050343549483</v>
       </c>
       <c r="R44" t="n">
         <v>3686.126665780539</v>
       </c>
       <c r="S44" t="n">
-        <v>3623.285630255708</v>
+        <v>3623.285630255707</v>
       </c>
       <c r="T44" t="n">
-        <v>3622.471467282753</v>
+        <v>3464.757515588002</v>
       </c>
       <c r="U44" t="n">
-        <v>3622.471467282753</v>
+        <v>3258.676671809912</v>
       </c>
       <c r="V44" t="n">
-        <v>3338.858212887255</v>
+        <v>2975.063417414415</v>
       </c>
       <c r="W44" t="n">
-        <v>3033.539190565214</v>
+        <v>2669.744395092374</v>
       </c>
       <c r="X44" t="n">
-        <v>2707.523065252208</v>
+        <v>2343.728269779368</v>
       </c>
       <c r="Y44" t="n">
-        <v>2364.83336622447</v>
+        <v>2001.038570751629</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>92.72982491407285</v>
       </c>
       <c r="I45" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J45" t="n">
-        <v>167.3998028062286</v>
+        <v>167.3998028062281</v>
       </c>
       <c r="K45" t="n">
-        <v>405.6640017865757</v>
+        <v>405.6640017865751</v>
       </c>
       <c r="L45" t="n">
-        <v>772.362162099241</v>
+        <v>772.3621620992403</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.638487321557</v>
+        <v>1219.638487321556</v>
       </c>
       <c r="N45" t="n">
         <v>1693.161530876011</v>
       </c>
       <c r="O45" t="n">
-        <v>2104.122810294066</v>
+        <v>2104.122810294065</v>
       </c>
       <c r="P45" t="n">
-        <v>2414.622401770169</v>
+        <v>2414.622401770168</v>
       </c>
       <c r="Q45" t="n">
         <v>2572.263959416769</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>766.6766666887213</v>
+        <v>766.6766666887218</v>
       </c>
       <c r="C46" t="n">
-        <v>645.1901167088877</v>
+        <v>645.1901167088881</v>
       </c>
       <c r="D46" t="n">
-        <v>542.5231102446253</v>
+        <v>542.5231102446257</v>
       </c>
       <c r="E46" t="n">
-        <v>442.0596496103055</v>
+        <v>442.0596496103059</v>
       </c>
       <c r="F46" t="n">
-        <v>342.6193350604685</v>
+        <v>342.6193350604688</v>
       </c>
       <c r="G46" t="n">
-        <v>222.3661313832608</v>
+        <v>222.3661313832611</v>
       </c>
       <c r="H46" t="n">
-        <v>123.598577549192</v>
+        <v>123.5985775491921</v>
       </c>
       <c r="I46" t="n">
-        <v>73.72253331561079</v>
+        <v>73.72253331561078</v>
       </c>
       <c r="J46" t="n">
         <v>165.3505510149529</v>
       </c>
       <c r="K46" t="n">
-        <v>415.8431192162358</v>
+        <v>415.8431192162359</v>
       </c>
       <c r="L46" t="n">
         <v>778.9083029171386</v>
@@ -7849,7 +7849,7 @@
         <v>1074.218444766345</v>
       </c>
       <c r="Y46" t="n">
-        <v>900.8754985708877</v>
+        <v>900.8754985708881</v>
       </c>
     </row>
   </sheetData>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.676880856393836e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>251.7166746871151</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>40.01310859644377</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>190.2350110279878</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>21.13839585591323</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>287.0017854473916</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544151</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>221.2853655744088</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>21.13839585591512</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>32.73380691160446</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>122.0661844377143</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>122.0661844377138</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>32.73380691160446</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>78.84780894988273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>187.782604310696</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>291.1627996097867</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>122.0661844377143</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707175</v>
+        <v>15.28796821707176</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.23161743843484</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
-        <v>286.758676502254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.32535640796272</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.981554650711573</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>69.74216386628439</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.6969415247049</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96297765942728</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6931860108716</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>182.7703878301534</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>53.01255389053819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>186.0561251324175</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>226.3829802585719</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,19 +24017,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96297765942728</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>90.45994314289837</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0161845886644</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25631,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>52.44894251602203</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25679,10 +25679,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.1368121778019</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>25.20161406444361</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,10 +25916,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.1368121778016</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>641107.1305643298</v>
+        <v>641107.13056433</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660643.631492217</v>
+        <v>660643.6314922171</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660643.631492217</v>
+        <v>660643.6314922171</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>699801.7315383455</v>
+        <v>699801.7315383453</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>699801.7315383455</v>
+        <v>699801.7315383453</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676150.2313618312</v>
+        <v>676150.231361831</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132606</v>
       </c>
       <c r="C2" t="n">
-        <v>757831.7007766768</v>
+        <v>757831.7007766771</v>
       </c>
       <c r="D2" t="n">
         <v>757844.0405676414</v>
       </c>
       <c r="E2" t="n">
-        <v>707191.1841481045</v>
+        <v>707191.1841481047</v>
       </c>
       <c r="F2" t="n">
-        <v>707191.1841481038</v>
+        <v>707191.1841481039</v>
       </c>
       <c r="G2" t="n">
-        <v>729095.7457945243</v>
+        <v>729095.7457945239</v>
       </c>
       <c r="H2" t="n">
-        <v>729095.7457945244</v>
+        <v>729095.745794524</v>
       </c>
       <c r="I2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244629</v>
       </c>
       <c r="J2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="K2" t="n">
+        <v>759463.6371244619</v>
+      </c>
+      <c r="L2" t="n">
         <v>759463.6371244617</v>
       </c>
-      <c r="L2" t="n">
-        <v>759463.6371244619</v>
-      </c>
       <c r="M2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="N2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="O2" t="n">
-        <v>732945.2884417035</v>
+        <v>732945.2884417032</v>
       </c>
       <c r="P2" t="n">
-        <v>732945.2884417035</v>
+        <v>732945.288441703</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>35702.60046935284</v>
       </c>
       <c r="E3" t="n">
-        <v>1124903.918865021</v>
+        <v>1124903.918865022</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.7180081248</v>
+        <v>16999.71800812454</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.23978166295</v>
+        <v>28261.23978166289</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.54414803078</v>
+        <v>40637.54414803085</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.71800812481</v>
+        <v>16999.71800812475</v>
       </c>
       <c r="M3" t="n">
-        <v>204641.633504584</v>
+        <v>204641.6335045841</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>423752.0599707537</v>
       </c>
       <c r="E4" t="n">
-        <v>58215.55741359854</v>
+        <v>58215.55741359858</v>
       </c>
       <c r="F4" t="n">
-        <v>58215.55741359854</v>
+        <v>58215.5574135986</v>
       </c>
       <c r="G4" t="n">
-        <v>71624.61628857302</v>
+        <v>71624.61628857307</v>
       </c>
       <c r="H4" t="n">
-        <v>71624.61628857302</v>
+        <v>71624.61628857307</v>
       </c>
       <c r="I4" t="n">
-        <v>85910.97499131855</v>
+        <v>85910.97499131858</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409838</v>
+        <v>82806.76150409845</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.76150409844</v>
+        <v>82806.76150409842</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409847</v>
+        <v>82806.76150409845</v>
       </c>
       <c r="M4" t="n">
         <v>86578.44856836622</v>
       </c>
       <c r="N4" t="n">
-        <v>86578.44856836621</v>
+        <v>86578.44856836622</v>
       </c>
       <c r="O4" t="n">
-        <v>70331.39278750692</v>
+        <v>70331.39278750689</v>
       </c>
       <c r="P4" t="n">
-        <v>70331.39278750695</v>
+        <v>70331.39278750686</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>34616.49914020263</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="G5" t="n">
         <v>80041.92993831306</v>
@@ -26491,13 +26491,13 @@
         <v>86503.56094423251</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
         <v>85898.12629704371</v>
@@ -26506,10 +26506,10 @@
         <v>85898.12629704371</v>
       </c>
       <c r="O5" t="n">
-        <v>83735.41015318656</v>
+        <v>83735.41015318655</v>
       </c>
       <c r="P5" t="n">
-        <v>83735.41015318656</v>
+        <v>83735.41015318655</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>287929.1335940122</v>
+        <v>287924.7200161443</v>
       </c>
       <c r="C6" t="n">
-        <v>285537.542714623</v>
+        <v>285533.1320758456</v>
       </c>
       <c r="D6" t="n">
-        <v>263772.8809873322</v>
+        <v>263768.5036993408</v>
       </c>
       <c r="E6" t="n">
-        <v>-554183.7854522968</v>
+        <v>-554325.0623522333</v>
       </c>
       <c r="F6" t="n">
-        <v>570720.1334127235</v>
+        <v>570578.8565127874</v>
       </c>
       <c r="G6" t="n">
-        <v>560429.4815595134</v>
+        <v>560347.4061775403</v>
       </c>
       <c r="H6" t="n">
-        <v>577429.1995676383</v>
+        <v>577347.124185665</v>
       </c>
       <c r="I6" t="n">
-        <v>558787.8614072487</v>
+        <v>558787.8614072489</v>
       </c>
       <c r="J6" t="n">
-        <v>546641.3897975265</v>
+        <v>546641.3897975266</v>
       </c>
       <c r="K6" t="n">
-        <v>587278.9339455572</v>
+        <v>587278.9339455575</v>
       </c>
       <c r="L6" t="n">
-        <v>570279.2159374326</v>
+        <v>570279.2159374325</v>
       </c>
       <c r="M6" t="n">
-        <v>382345.4287544686</v>
+        <v>382345.4287544682</v>
       </c>
       <c r="N6" t="n">
-        <v>586987.0622590524</v>
+        <v>586987.0622590523</v>
       </c>
       <c r="O6" t="n">
-        <v>578878.4855010101</v>
+        <v>578806.8142883537</v>
       </c>
       <c r="P6" t="n">
-        <v>578878.4855010101</v>
+        <v>578806.8142883535</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="G2" t="n">
         <v>68.22478412874857</v>
@@ -26707,7 +26707,7 @@
         <v>68.22478412874857</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
@@ -26716,16 +26716,16 @@
         <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="N2" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6782811575467</v>
+        <v>937.6782811575468</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>921.5316664451349</v>
+        <v>921.5316664451346</v>
       </c>
       <c r="N4" t="n">
-        <v>921.5316664451349</v>
+        <v>921.5316664451346</v>
       </c>
       <c r="O4" t="n">
-        <v>921.5316664451349</v>
+        <v>921.5316664451346</v>
       </c>
       <c r="P4" t="n">
-        <v>921.5316664451349</v>
+        <v>921.5316664451346</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>21.249647510156</v>
+        <v>21.2496475101559</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72548910843656</v>
+        <v>25.72548910843665</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24964751015602</v>
+        <v>21.24964751015593</v>
       </c>
       <c r="M2" t="n">
-        <v>25.72548910843658</v>
+        <v>25.72548910843663</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-8.202073660032603e-15</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2768257552542</v>
+        <v>106.276825755254</v>
       </c>
       <c r="J4" t="n">
         <v>76.65818005106757</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>738.596660638813</v>
+        <v>738.5966606388132</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>21.249647510156</v>
+        <v>21.2496475101559</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72548910843656</v>
+        <v>25.72548910843665</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859017</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859306</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859266</v>
       </c>
     </row>
     <row r="17">
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.90347009138316</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.90347009138273</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>68.22478412874857</v>
@@ -28998,10 +28998,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>28.90347009138276</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.90347009138273</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>68.22478412874857</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>28.90347009138321</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.90347009138273</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>68.22478412874857</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="29">
@@ -29697,7 +29697,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
         <v>46.97513661859256</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="C35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="D35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="E35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="F35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="G35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="H35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="T35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="U35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="V35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="W35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="X35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="Y35" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.41545119110464</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="C37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="D37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="E37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="F37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="G37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="H37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="I37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="S37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="T37" t="n">
-        <v>72.70062572702916</v>
+        <v>29.41545119110373</v>
       </c>
       <c r="U37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="V37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="W37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="X37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="C38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="D38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="E38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="F38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="G38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="H38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="T38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="U38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="V38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="W38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="X38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="Y38" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="C40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="D40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="E40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="F40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="G40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="H40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="I40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="S40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="T40" t="n">
-        <v>29.41545119110464</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="U40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="V40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="W40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="X40" t="n">
-        <v>72.70062572702916</v>
+        <v>72.70062572702922</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.70062572702916</v>
+        <v>29.41545119110395</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.975136618592</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31300,7 +31300,7 @@
         <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P5" t="n">
         <v>2.123843523123063</v>
@@ -31309,7 +31309,7 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678707</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
         <v>0.3365553796171231</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945164</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296705</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
         <v>0.1992317778827147</v>
@@ -31449,7 +31449,7 @@
         <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522113</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
         <v>1.038498653576677</v>
@@ -31467,13 +31467,13 @@
         <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553525</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612933</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
         <v>0.0003613635632697367</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32330,7 +32330,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987486</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32564,7 +32564,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
@@ -33515,10 +33515,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33749,7 +33749,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,10 +34208,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026443</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353162</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165639</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861328</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564867</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687142</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554004</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597745</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35978,7 +35978,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127271</v>
@@ -36045,7 +36045,7 @@
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6608422615813</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.2977086292764</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882205</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193716</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597745</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36212,7 +36212,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
@@ -36294,10 +36294,10 @@
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>263.8605412364931</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.2977086292764</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36364,13 +36364,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>790.6377905173416</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>592.314944009355</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597739</v>
+        <v>94.62350453597737</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36522,7 +36522,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>376.536849484867</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
@@ -36534,7 +36534,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.2977086292764</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36607,7 +36607,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>698.2880119162069</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36616,7 +36616,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>80.75159439813801</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36765,13 +36765,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>795.0547863356106</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737867</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>558.4766521298092</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37078,19 +37078,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>80.75159439813984</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>571.654922741831</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
@@ -37324,10 +37324,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>372.8604892414338</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597763</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37397,7 +37397,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>459.2574709931142</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>571.654922741831</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>269.6348099185952</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
@@ -37792,16 +37792,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>695.835605198915</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597764</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609572</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316582</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,7 +37944,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
@@ -38023,7 +38023,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>830.0839154400132</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>372.8604892414338</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597763</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
